--- a/GA02HYPM/Omaha_Cal_Info_GA02HYPM_00001.xlsx
+++ b/GA02HYPM/Omaha_Cal_Info_GA02HYPM_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Test and Commissioning OOI\Cabled Instruments\Repaired GIT 20150715\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9612" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,12 +22,12 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
   <si>
     <t>Ref Des</t>
   </si>
@@ -114,9 +119,6 @@
     <t>CC_depolarization_ratio</t>
   </si>
   <si>
-    <t>GA02HYPM-GP001</t>
-  </si>
-  <si>
     <t>GA02HYPM-00001</t>
   </si>
   <si>
@@ -150,9 +152,6 @@
     <t>GA02HYPM-WFP03-05-VEL3DL000</t>
   </si>
   <si>
-    <t>GA02HYPM-RIS01-01-CTDMOG000</t>
-  </si>
-  <si>
     <t>42° 58.90' S</t>
   </si>
   <si>
@@ -178,6 +177,15 @@
   </si>
   <si>
     <t>GA02HYPM-GP001-00-ENG000000</t>
+  </si>
+  <si>
+    <t>GA02HYPM-RIS01-46-CTDMOG000</t>
+  </si>
+  <si>
+    <t>This reference designator is incorrect - should be GA02HYPM-RIS01-01-CTDMOG039 but it was set by the parser to follow the imductive modem ID</t>
+  </si>
+  <si>
+    <t>GA02HYPM</t>
   </si>
 </sst>
 </file>
@@ -348,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +384,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -575,7 +589,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -649,6 +663,12 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="131">
@@ -790,6 +810,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -854,7 +877,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,7 +912,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1100,27 +1123,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1155,12 +1180,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>30</v>
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -1173,16 +1198,16 @@
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2" s="16">
         <v>5200</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="18">
@@ -1194,48 +1219,48 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="19"/>
@@ -1250,23 +1275,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="78.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="78.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1289,13 +1314,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1310,15 +1335,15 @@
         <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1333,12 +1358,12 @@
         <v>1.7379999999999999E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1353,12 +1378,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1373,12 +1398,12 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1396,12 +1421,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1419,12 +1444,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1442,12 +1467,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1465,12 +1490,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1488,12 +1513,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1508,12 +1533,12 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1528,12 +1553,12 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1548,12 +1573,12 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1568,12 +1593,12 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1588,12 +1613,12 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1608,15 +1633,15 @@
         <v>51</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1631,12 +1656,12 @@
         <v>1.702E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1651,12 +1676,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1671,12 +1696,12 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1694,12 +1719,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1717,12 +1742,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1740,12 +1765,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1763,12 +1788,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1783,12 +1808,12 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1803,12 +1828,12 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1823,12 +1848,12 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1843,12 +1868,12 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1863,12 +1888,12 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1883,17 +1908,17 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G39" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -1907,13 +1932,16 @@
       <c r="F41" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
+      <c r="G41" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1927,13 +1955,16 @@
       <c r="F42" s="1">
         <v>-42.981666666666669</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
+      <c r="G42" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1947,41 +1978,44 @@
       <c r="F43" s="1">
         <v>-42.4985</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
       <c r="G45" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>50</v>
-      </c>
       <c r="G46" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/GA02HYPM/Omaha_Cal_Info_GA02HYPM_00001.xlsx
+++ b/GA02HYPM/Omaha_Cal_Info_GA02HYPM_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Test and Commissioning OOI\Cabled Instruments\Repaired GIT 20150715\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9612" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9612"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -388,7 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +589,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -662,9 +662,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1181,7 +1178,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -1275,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1914,7 +1911,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1937,7 +1934,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1960,7 +1957,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="1" t="s">

--- a/GA02HYPM/Omaha_Cal_Info_GA02HYPM_00001.xlsx
+++ b/GA02HYPM/Omaha_Cal_Info_GA02HYPM_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9612"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20160" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,12 +17,12 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
   <si>
     <t>Ref Des</t>
   </si>
@@ -173,19 +168,16 @@
     <t>GA03HYPM-GP-00001-ENG</t>
   </si>
   <si>
-    <t>GA03HYPM-WFP-00001-ENG</t>
-  </si>
-  <si>
     <t>GA02HYPM-GP001-00-ENG000000</t>
   </si>
   <si>
-    <t>GA02HYPM-RIS01-46-CTDMOG000</t>
-  </si>
-  <si>
-    <t>This reference designator is incorrect - should be GA02HYPM-RIS01-01-CTDMOG039 but it was set by the parser to follow the imductive modem ID</t>
-  </si>
-  <si>
     <t>GA02HYPM</t>
+  </si>
+  <si>
+    <t>GA02HYPM-RIM01-02-CTDMOG046</t>
+  </si>
+  <si>
+    <t>GA02HYPM-WFP03-00-ENG000000</t>
   </si>
 </sst>
 </file>
@@ -198,7 +190,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,8 +347,129 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,8 +505,176 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -455,8 +736,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -588,8 +976,50 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -655,9 +1085,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -667,8 +1094,41 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="173">
+    <cellStyle name="20% - Accent1" xfId="149" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="153" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="157" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="161" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="165" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="169" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="150" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="154" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="158" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="162" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="166" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="170" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="151" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="155" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="159" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="163" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="167" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="171" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="148" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="152" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="156" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="160" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="164" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="168" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="137" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="141" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="143" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma 2" xfId="62"/>
     <cellStyle name="Comma 2 2" xfId="63"/>
     <cellStyle name="Comma 2 2 2" xfId="64"/>
@@ -679,6 +1139,12 @@
     <cellStyle name="Currency 2 3" xfId="69"/>
     <cellStyle name="Excel Built-in Normal" xfId="5"/>
     <cellStyle name="Excel Built-in Normal 2" xfId="70"/>
+    <cellStyle name="Explanatory Text" xfId="146" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="136" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="132" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="133" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="134" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="135" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink 2" xfId="8"/>
     <cellStyle name="Hyperlink 2 2" xfId="71"/>
     <cellStyle name="Hyperlink 2 3" xfId="72"/>
@@ -693,10 +1159,14 @@
     <cellStyle name="Hyperlink 7" xfId="13"/>
     <cellStyle name="Hyperlink 7 2" xfId="77"/>
     <cellStyle name="Hyperlink 8" xfId="14"/>
+    <cellStyle name="Input" xfId="139" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="78"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="15"/>
     <cellStyle name="Normal 11" xfId="16"/>
+    <cellStyle name="Normal 11 2" xfId="172"/>
     <cellStyle name="Normal 12" xfId="17"/>
     <cellStyle name="Normal 13" xfId="18"/>
     <cellStyle name="Normal 14" xfId="57"/>
@@ -780,8 +1250,12 @@
     <cellStyle name="Normal 7" xfId="45"/>
     <cellStyle name="Normal 8" xfId="46"/>
     <cellStyle name="Normal 9" xfId="47"/>
+    <cellStyle name="Note" xfId="145" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent 2" xfId="121"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="147" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Untitled1" xfId="48"/>
     <cellStyle name="Untitled1 2" xfId="122"/>
     <cellStyle name="Untitled2" xfId="49"/>
@@ -800,15 +1274,13 @@
     <cellStyle name="Untitled8 2" xfId="129"/>
     <cellStyle name="Untitled9" xfId="56"/>
     <cellStyle name="Untitled9 2" xfId="130"/>
+    <cellStyle name="Warning Text" xfId="144" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -874,7 +1346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,7 +1381,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1120,26 +1592,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1177,9 +1649,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>52</v>
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>30</v>
@@ -1216,48 +1688,48 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="19"/>
@@ -1270,25 +1742,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="78.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="78.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1311,8 +1783,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="13.9" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1335,7 +1807,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1355,7 +1827,7 @@
         <v>1.7379999999999999E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1375,7 +1847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1395,7 +1867,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1412,13 +1884,13 @@
         <v>26</v>
       </c>
       <c r="F7" s="1">
-        <v>117</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="G7" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1441,7 +1913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1458,13 +1930,13 @@
         <v>28</v>
       </c>
       <c r="F9" s="1">
-        <v>1.08</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1487,7 +1959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1510,7 +1982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,7 +2002,7 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1550,7 +2022,7 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1570,7 +2042,7 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,7 +2062,7 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1610,7 +2082,7 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1633,7 +2105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1653,7 +2125,7 @@
         <v>1.702E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1673,7 +2145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1693,7 +2165,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1710,13 +2182,13 @@
         <v>26</v>
       </c>
       <c r="F25" s="1">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -1739,7 +2211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1756,13 +2228,13 @@
         <v>28</v>
       </c>
       <c r="F27" s="1">
-        <v>1.08</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1785,7 +2257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1805,7 +2277,7 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -1825,7 +2297,7 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -1845,7 +2317,7 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1865,7 +2337,7 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1885,7 +2357,7 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -1905,13 +2377,13 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G39" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1927,14 +2399,12 @@
         <v>5</v>
       </c>
       <c r="F41" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1952,12 +2422,10 @@
       <c r="F42" s="1">
         <v>-42.981666666666669</v>
       </c>
-      <c r="G42" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1975,13 +2443,11 @@
       <c r="F43" s="1">
         <v>-42.4985</v>
       </c>
-      <c r="G43" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G43" s="24"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>30</v>
@@ -1989,16 +2455,16 @@
       <c r="C45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>45</v>
       </c>
@@ -2008,12 +2474,25 @@
       <c r="C46" s="1">
         <v>1</v>
       </c>
-      <c r="D46" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>46</v>
-      </c>
+      <c r="D46" s="26">
+        <v>1399421</v>
+      </c>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="26">
+        <v>1399422</v>
+      </c>
+      <c r="G47" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GA02HYPM/Omaha_Cal_Info_GA02HYPM_00001.xlsx
+++ b/GA02HYPM/Omaha_Cal_Info_GA02HYPM_00001.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
   <si>
     <t>Ref Des</t>
   </si>
@@ -162,9 +162,6 @@
     <t>GA02HYPM-WFP02-00-ENG000000</t>
   </si>
   <si>
-    <t>The serial number used here is bogus, pending identification of the real serial number.</t>
-  </si>
-  <si>
     <t>GA03HYPM-GP-00001-ENG</t>
   </si>
   <si>
@@ -174,10 +171,10 @@
     <t>GA02HYPM</t>
   </si>
   <si>
+    <t>GA02HYPM-WFP03-00-ENG000000</t>
+  </si>
+  <si>
     <t>GA02HYPM-RIM01-02-CTDMOG046</t>
-  </si>
-  <si>
-    <t>GA02HYPM-WFP03-00-ENG000000</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1648,7 @@
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>30</v>
@@ -1744,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2447,7 +2444,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>30</v>
@@ -2456,13 +2453,11 @@
         <v>1</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
-      <c r="G45" s="24" t="s">
-        <v>46</v>
-      </c>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
@@ -2481,7 +2476,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>30</v>

--- a/GA02HYPM/Omaha_Cal_Info_GA02HYPM_00001.xlsx
+++ b/GA02HYPM/Omaha_Cal_Info_GA02HYPM_00001.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20160" windowHeight="9555" activeTab="1"/>
+    <workbookView xWindow="5440" yWindow="7720" windowWidth="26840" windowHeight="10160"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,12 +17,17 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="53">
   <si>
     <t>Ref Des</t>
   </si>
@@ -153,18 +158,12 @@
     <t>42° 29.91' W</t>
   </si>
   <si>
-    <t>AT26-30</t>
-  </si>
-  <si>
     <t>GA02HYPM-MFC04-01-ZPLSGA000 unit not deployed</t>
   </si>
   <si>
     <t>GA02HYPM-WFP02-00-ENG000000</t>
   </si>
   <si>
-    <t>GA03HYPM-GP-00001-ENG</t>
-  </si>
-  <si>
     <t>GA02HYPM-GP001-00-ENG000000</t>
   </si>
   <si>
@@ -175,6 +174,56 @@
   </si>
   <si>
     <t>GA02HYPM-RIM01-02-CTDMOG046</t>
+  </si>
+  <si>
+    <r>
+      <t>AT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>26-30</t>
+    </r>
+  </si>
+  <si>
+    <t>13104-04</t>
+  </si>
+  <si>
+    <t>13104-06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12406</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -182,12 +231,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +513,33 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="37">
@@ -707,16 +783,16 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,7 +917,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -904,14 +980,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1015,8 +1091,34 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1039,19 +1141,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1075,10 +1177,10 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1091,14 +1193,20 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="199">
     <cellStyle name="20% - Accent1" xfId="149" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="153" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="157" builtinId="38" customBuiltin="1"/>
@@ -1137,11 +1245,37 @@
     <cellStyle name="Excel Built-in Normal" xfId="5"/>
     <cellStyle name="Excel Built-in Normal 2" xfId="70"/>
     <cellStyle name="Explanatory Text" xfId="146" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="136" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="132" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="133" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="134" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="135" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="8"/>
     <cellStyle name="Hyperlink 2 2" xfId="71"/>
     <cellStyle name="Hyperlink 2 3" xfId="72"/>
@@ -1284,7 +1418,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1589,29 +1723,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="28">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1646,9 +1780,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="13" customFormat="1">
       <c r="A2" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>30</v>
@@ -1673,7 +1807,7 @@
         <v>5200</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="18">
@@ -1685,55 +1819,60 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="13" customFormat="1">
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" customFormat="1"/>
+    <row r="5" spans="1:13" customFormat="1"/>
+    <row r="6" spans="1:13" customFormat="1"/>
+    <row r="7" spans="1:13" customFormat="1"/>
+    <row r="8" spans="1:13" customFormat="1"/>
+    <row r="9" spans="1:13" customFormat="1"/>
+    <row r="10" spans="1:13" s="13" customFormat="1">
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="13" customFormat="1">
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="13" customFormat="1">
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="13" customFormat="1">
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="13" customFormat="1">
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="13" customFormat="1">
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="13" customFormat="1">
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1741,23 +1880,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="78.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="78.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1780,8 +1919,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" ht="13.9" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="10" customFormat="1"/>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1804,7 +1943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1824,7 +1963,7 @@
         <v>1.7379999999999999E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1844,7 +1983,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1864,7 +2003,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1887,7 +2026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1910,7 +2049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1926,14 +2065,14 @@
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="1">
-        <v>1.1299999999999999</v>
+      <c r="F9" s="31">
+        <v>1.0960000000000001</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1956,7 +2095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1979,7 +2118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1999,7 +2138,7 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -2019,7 +2158,7 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -2039,7 +2178,7 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -2059,7 +2198,7 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -2079,7 +2218,7 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -2102,7 +2241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2122,7 +2261,7 @@
         <v>1.702E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -2142,7 +2281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -2162,7 +2301,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -2185,7 +2324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2208,7 +2347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -2231,7 +2370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -2254,7 +2393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -2274,7 +2413,7 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -2294,7 +2433,7 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2314,7 +2453,7 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -2334,7 +2473,7 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -2354,7 +2493,7 @@
         <v>-42.981666666666669</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -2374,14 +2513,14 @@
         <v>-42.4985</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="G39" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>30</v>
@@ -2389,20 +2528,20 @@
       <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="1">
-        <v>12406</v>
+      <c r="D41" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="1">
-        <v>1470</v>
+      <c r="F41" s="30">
+        <v>1450</v>
       </c>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>50</v>
+    <row r="42" spans="1:7">
+      <c r="A42" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>30</v>
@@ -2410,8 +2549,8 @@
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="1">
-        <v>12406</v>
+      <c r="D42" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>6</v>
@@ -2421,9 +2560,9 @@
       </c>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
-        <v>50</v>
+    <row r="43" spans="1:7">
+      <c r="A43" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>30</v>
@@ -2431,8 +2570,8 @@
       <c r="C43" s="1">
         <v>1</v>
       </c>
-      <c r="D43" s="1">
-        <v>12406</v>
+      <c r="D43" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>7</v>
@@ -2442,9 +2581,9 @@
       </c>
       <c r="G43" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>30</v>
@@ -2452,16 +2591,16 @@
       <c r="C45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>46</v>
+      <c r="D45" s="29">
+        <v>13994</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>30</v>
@@ -2469,14 +2608,14 @@
       <c r="C46" s="1">
         <v>1</v>
       </c>
-      <c r="D46" s="26">
-        <v>1399421</v>
+      <c r="D46" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>30</v>
@@ -2484,13 +2623,18 @@
       <c r="C47" s="1">
         <v>1</v>
       </c>
-      <c r="D47" s="26">
-        <v>1399422</v>
+      <c r="D47" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="G47" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>